--- a/teaching/traditional_assets/database/data/romania/romania_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/romania/romania_investments_asset_management.xlsx
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.151</v>
+        <v>-0.3855</v>
       </c>
       <c r="E2">
-        <v>0.2015</v>
+        <v>-0.268</v>
       </c>
       <c r="G2">
-        <v>0.1130359462970983</v>
+        <v>0.6248272048659109</v>
       </c>
       <c r="H2">
-        <v>0.1130359462970983</v>
+        <v>0.6248272048659109</v>
       </c>
       <c r="I2">
-        <v>0.8352822289591454</v>
+        <v>0.5340653264346933</v>
       </c>
       <c r="J2">
-        <v>0.7929064402576195</v>
+        <v>0.4620313541173277</v>
       </c>
       <c r="K2">
-        <v>571</v>
+        <v>131.09</v>
       </c>
       <c r="L2">
-        <v>0.8243106683990182</v>
+        <v>0.5177534657766895</v>
       </c>
       <c r="M2">
-        <v>294.426</v>
+        <v>355.96</v>
       </c>
       <c r="N2">
-        <v>0.09215211267605633</v>
+        <v>0.1086237412267318</v>
       </c>
       <c r="O2">
-        <v>0.515632224168126</v>
+        <v>2.71538637577237</v>
       </c>
       <c r="P2">
-        <v>177.292</v>
+        <v>112.83</v>
       </c>
       <c r="Q2">
-        <v>0.05549045383411581</v>
+        <v>0.03443088190418065</v>
       </c>
       <c r="R2">
-        <v>0.3104938704028021</v>
+        <v>0.8607063849263864</v>
       </c>
       <c r="S2">
-        <v>117.134</v>
+        <v>243.13</v>
       </c>
       <c r="T2">
-        <v>0.3978385061101941</v>
+        <v>0.6830261827171592</v>
       </c>
       <c r="U2">
-        <v>146.68</v>
+        <v>306.32</v>
       </c>
       <c r="V2">
-        <v>0.04590923317683882</v>
+        <v>0.09347574000610315</v>
       </c>
       <c r="W2">
-        <v>0.08752465483234713</v>
+        <v>0.02193744569939183</v>
       </c>
       <c r="X2">
-        <v>0.05996729083651947</v>
+        <v>0.04699080201778191</v>
       </c>
       <c r="Y2">
-        <v>0.02755736399582766</v>
+        <v>-0.02505335631839008</v>
       </c>
       <c r="Z2">
-        <v>0.1690137133632826</v>
+        <v>0.06038310923287527</v>
       </c>
       <c r="AA2">
-        <v>0.08071314705469756</v>
+        <v>0.02065097581534072</v>
       </c>
       <c r="AB2">
-        <v>0.05979703330981002</v>
+        <v>0.04697868048374997</v>
       </c>
       <c r="AC2">
-        <v>0.02063926574372948</v>
+        <v>-0.02693248796158438</v>
       </c>
       <c r="AD2">
-        <v>27.73</v>
+        <v>12.258</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>27.73</v>
+        <v>12.258</v>
       </c>
       <c r="AG2">
-        <v>-118.95</v>
+        <v>-294.062</v>
       </c>
       <c r="AH2">
-        <v>0.008604506117484244</v>
+        <v>0.003726676350714964</v>
       </c>
       <c r="AI2">
-        <v>0.006401451580509854</v>
+        <v>0.003006727239457445</v>
       </c>
       <c r="AJ2">
-        <v>-0.03866972253376896</v>
+        <v>-0.09858133155969048</v>
       </c>
       <c r="AK2">
-        <v>-0.02842192036127737</v>
+        <v>-0.07798940098203493</v>
       </c>
       <c r="AL2">
-        <v>0.8260000000000001</v>
+        <v>0.478</v>
       </c>
       <c r="AM2">
-        <v>0.8260000000000001</v>
+        <v>0.478</v>
       </c>
       <c r="AN2">
-        <v>0.201233671988389</v>
+        <v>0.5281344248168892</v>
       </c>
       <c r="AO2">
-        <v>700.4842615012107</v>
+        <v>282.8870292887029</v>
       </c>
       <c r="AP2">
-        <v>-0.8632075471698113</v>
+        <v>-12.66962516156829</v>
       </c>
       <c r="AQ2">
-        <v>700.4842615012107</v>
+        <v>282.8870292887029</v>
       </c>
     </row>
     <row r="3">
@@ -724,12 +724,6 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D3">
-        <v>0.234</v>
-      </c>
-      <c r="E3">
-        <v>0.518</v>
-      </c>
       <c r="G3">
         <v>0</v>
       </c>
@@ -737,67 +731,67 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.96484375</v>
+        <v>0.846774193548387</v>
       </c>
       <c r="J3">
-        <v>0.9590442614531743</v>
+        <v>0.8280877778089178</v>
       </c>
       <c r="K3">
-        <v>441.5</v>
+        <v>112.6</v>
       </c>
       <c r="L3">
-        <v>0.9581163194444444</v>
+        <v>0.8255131964809383</v>
       </c>
       <c r="M3">
-        <v>238</v>
+        <v>301.3</v>
       </c>
       <c r="N3">
-        <v>0.1225540679711637</v>
+        <v>0.1330947963601025</v>
       </c>
       <c r="O3">
-        <v>0.5390713476783692</v>
+        <v>2.675843694493783</v>
       </c>
       <c r="P3">
-        <v>137.8</v>
+        <v>95.5</v>
       </c>
       <c r="Q3">
-        <v>0.07095777548918641</v>
+        <v>0.04218570545101157</v>
       </c>
       <c r="R3">
-        <v>0.3121177802944508</v>
+        <v>0.8481349911190054</v>
       </c>
       <c r="S3">
-        <v>100.2</v>
+        <v>205.8</v>
       </c>
       <c r="T3">
-        <v>0.4210084033613445</v>
+        <v>0.6830401593096581</v>
       </c>
       <c r="U3">
-        <v>55.5</v>
+        <v>230.4</v>
       </c>
       <c r="V3">
-        <v>0.02857878475798146</v>
+        <v>0.101775775245163</v>
       </c>
       <c r="W3">
-        <v>0.1786870649182451</v>
+        <v>0.0456369310582418</v>
       </c>
       <c r="X3">
-        <v>0.05968687854452819</v>
+        <v>0.04696437217823866</v>
       </c>
       <c r="Y3">
-        <v>0.1190001863737169</v>
+        <v>-0.001327441119996865</v>
       </c>
       <c r="Z3">
-        <v>0.1910685408632914</v>
+        <v>0.05655526992287917</v>
       </c>
       <c r="AA3">
-        <v>0.183243187659171</v>
+        <v>0.04683272779382055</v>
       </c>
       <c r="AB3">
-        <v>0.05968687854452819</v>
+        <v>0.04696437217823866</v>
       </c>
       <c r="AC3">
-        <v>0.1235563091146428</v>
+        <v>-0.0001316443844181156</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -809,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-55.5</v>
+        <v>-230.4</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -818,22 +812,22 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.02941956003180493</v>
+        <v>-0.1133077604012983</v>
       </c>
       <c r="AK3">
-        <v>-0.02301185836304834</v>
+        <v>-0.1068001668752608</v>
       </c>
       <c r="AL3">
-        <v>0.134</v>
+        <v>0.017</v>
       </c>
       <c r="AM3">
-        <v>0.134</v>
+        <v>0.017</v>
       </c>
       <c r="AO3">
-        <v>3317.910447761194</v>
+        <v>6794.117647058823</v>
       </c>
       <c r="AQ3">
-        <v>3317.910447761194</v>
+        <v>6794.117647058823</v>
       </c>
     </row>
     <row r="4">
@@ -853,43 +847,46 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.151</v>
+        <v>-0.277</v>
+      </c>
+      <c r="E4">
+        <v>-0.3</v>
       </c>
       <c r="G4">
-        <v>0.3340807174887893</v>
+        <v>3.820754716981132</v>
       </c>
       <c r="H4">
-        <v>0.3340807174887893</v>
+        <v>3.820754716981132</v>
       </c>
       <c r="I4">
-        <v>0.8340807174887893</v>
+        <v>0.5688679245283019</v>
       </c>
       <c r="J4">
-        <v>0.8340807174887893</v>
+        <v>0.513547929325232</v>
       </c>
       <c r="K4">
-        <v>38.4</v>
+        <v>8.52</v>
       </c>
       <c r="L4">
-        <v>0.8609865470852017</v>
+        <v>0.8037735849056603</v>
       </c>
       <c r="M4">
-        <v>3.59</v>
+        <v>4.22</v>
       </c>
       <c r="N4">
-        <v>0.01806743834927026</v>
+        <v>0.02257891920813269</v>
       </c>
       <c r="O4">
-        <v>0.09348958333333333</v>
+        <v>0.4953051643192488</v>
       </c>
       <c r="P4">
-        <v>3.59</v>
+        <v>4.22</v>
       </c>
       <c r="Q4">
-        <v>0.01806743834927026</v>
+        <v>0.02257891920813269</v>
       </c>
       <c r="R4">
-        <v>0.09348958333333333</v>
+        <v>0.4953051643192488</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -898,31 +895,31 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>30.3</v>
+        <v>8.35</v>
       </c>
       <c r="V4">
-        <v>0.1524911927528938</v>
+        <v>0.04467629748528625</v>
       </c>
       <c r="W4">
-        <v>0.15</v>
+        <v>0.03243243243243243</v>
       </c>
       <c r="X4">
-        <v>0.05968687854452819</v>
+        <v>0.04696437217823866</v>
       </c>
       <c r="Y4">
-        <v>0.09031312145547181</v>
+        <v>-0.01453193974580623</v>
       </c>
       <c r="Z4">
-        <v>0.1834635952283011</v>
+        <v>0.04574881312041433</v>
       </c>
       <c r="AA4">
-        <v>0.1530234471410942</v>
+        <v>0.02349420824707578</v>
       </c>
       <c r="AB4">
-        <v>0.05968687854452819</v>
+        <v>0.04696437217823866</v>
       </c>
       <c r="AC4">
-        <v>0.09333656859656604</v>
+        <v>-0.02347016393116289</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -934,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>-30.3</v>
+        <v>-8.35</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -943,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>-0.1799287410926366</v>
+        <v>-0.0467656118734248</v>
       </c>
       <c r="AK4">
-        <v>-0.1230706742485784</v>
+        <v>-0.03629645729189306</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -958,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>-0.8123324396782843</v>
+        <v>-1.353322528363047</v>
       </c>
     </row>
     <row r="5">
@@ -978,97 +975,97 @@
         </is>
       </c>
       <c r="G5">
-        <v>0.2743455497382199</v>
+        <v>0.589527027027027</v>
       </c>
       <c r="H5">
-        <v>0.2743455497382199</v>
+        <v>0.589527027027027</v>
       </c>
       <c r="I5">
-        <v>0.368586387434555</v>
+        <v>0.1773648648648649</v>
       </c>
       <c r="J5">
-        <v>0.3487991182143842</v>
+        <v>0.161402027027027</v>
       </c>
       <c r="K5">
-        <v>35.5</v>
+        <v>10.1</v>
       </c>
       <c r="L5">
-        <v>0.3717277486910995</v>
+        <v>0.1706081081081081</v>
       </c>
       <c r="M5">
-        <v>33.8</v>
+        <v>31.41</v>
       </c>
       <c r="N5">
-        <v>0.09707064905226881</v>
+        <v>0.1329805249788315</v>
       </c>
       <c r="O5">
-        <v>0.952112676056338</v>
+        <v>3.10990099009901</v>
       </c>
       <c r="P5">
-        <v>21.8</v>
+        <v>2.41</v>
       </c>
       <c r="Q5">
-        <v>0.06260769672601953</v>
+        <v>0.01020321761219306</v>
       </c>
       <c r="R5">
-        <v>0.6140845070422536</v>
+        <v>0.2386138613861386</v>
       </c>
       <c r="S5">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="T5">
-        <v>0.3550295857988165</v>
+        <v>0.9232728430436167</v>
       </c>
       <c r="U5">
-        <v>8.01</v>
+        <v>10.6</v>
       </c>
       <c r="V5">
-        <v>0.02300402067777139</v>
+        <v>0.04487722269263336</v>
       </c>
       <c r="W5">
-        <v>0.08752465483234713</v>
+        <v>0.02193744569939183</v>
       </c>
       <c r="X5">
-        <v>0.06069288794477878</v>
+        <v>0.04814979530598221</v>
       </c>
       <c r="Y5">
-        <v>0.02683176688756835</v>
+        <v>-0.02621234960659037</v>
       </c>
       <c r="Z5">
-        <v>0.2314029561424764</v>
+        <v>0.1279474378093324</v>
       </c>
       <c r="AA5">
-        <v>0.08071314705469756</v>
+        <v>0.02065097581534072</v>
       </c>
       <c r="AB5">
-        <v>0.06007388131096809</v>
+        <v>0.04758346377692511</v>
       </c>
       <c r="AC5">
-        <v>0.02063926574372948</v>
+        <v>-0.02693248796158438</v>
       </c>
       <c r="AD5">
-        <v>10.3</v>
+        <v>8.85</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>10.3</v>
+        <v>8.85</v>
       </c>
       <c r="AG5">
-        <v>2.290000000000001</v>
+        <v>-1.75</v>
       </c>
       <c r="AH5">
-        <v>0.02873082287308229</v>
+        <v>0.03611507855539686</v>
       </c>
       <c r="AI5">
-        <v>0.02152560083594567</v>
+        <v>0.02138972809667674</v>
       </c>
       <c r="AJ5">
-        <v>0.006533709948928645</v>
+        <v>-0.007464278097675411</v>
       </c>
       <c r="AK5">
-        <v>0.004867266041786225</v>
+        <v>-0.004340816073421803</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1077,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.2703412073490813</v>
+        <v>0.6807692307692308</v>
       </c>
       <c r="AP5">
-        <v>0.06010498687664044</v>
+        <v>-0.1346153846153846</v>
       </c>
     </row>
     <row r="6">
@@ -1091,7 +1088,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SIF Banat-Crisana (BVB:SIF1)</t>
+          <t>Societatea de Investitii Financiare Moldova S.A. (BVB:SIF2)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1099,116 +1096,119 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="E6">
+        <v>-0.236</v>
+      </c>
       <c r="G6">
-        <v>0.5660377358490566</v>
+        <v>0.9452054794520548</v>
       </c>
       <c r="H6">
-        <v>0.5660377358490566</v>
+        <v>0.9452054794520548</v>
       </c>
       <c r="I6">
-        <v>0.8254716981132075</v>
+        <v>0.1321917808219178</v>
       </c>
       <c r="J6">
-        <v>0.7589890972771438</v>
+        <v>0.0707121113285497</v>
       </c>
       <c r="K6">
-        <v>30.7</v>
+        <v>2.73</v>
       </c>
       <c r="L6">
-        <v>0.7240566037735849</v>
+        <v>0.06232876712328767</v>
       </c>
       <c r="M6">
-        <v>0.056</v>
+        <v>17.73</v>
       </c>
       <c r="N6">
-        <v>0.0001691331923890063</v>
+        <v>0.05809305373525557</v>
       </c>
       <c r="O6">
-        <v>0.001824104234527687</v>
+        <v>6.494505494505495</v>
       </c>
       <c r="P6">
-        <v>0.002</v>
+        <v>10.7</v>
       </c>
       <c r="Q6">
-        <v>6.040471156750226e-06</v>
+        <v>0.03505897771952818</v>
       </c>
       <c r="R6">
-        <v>6.514657980456027e-05</v>
+        <v>3.919413919413919</v>
       </c>
       <c r="S6">
-        <v>0.054</v>
+        <v>7.030000000000001</v>
       </c>
       <c r="T6">
-        <v>0.9642857142857143</v>
+        <v>0.3965031020868585</v>
       </c>
       <c r="U6">
-        <v>43</v>
+        <v>2.77</v>
       </c>
       <c r="V6">
-        <v>0.1298701298701299</v>
+        <v>0.009076015727391874</v>
       </c>
       <c r="W6">
-        <v>0.05174448002696781</v>
+        <v>0.005681581685744017</v>
       </c>
       <c r="X6">
-        <v>0.05996729083651947</v>
+        <v>0.04729298518687632</v>
       </c>
       <c r="Y6">
-        <v>-0.008222810809551659</v>
+        <v>-0.0416114035011323</v>
       </c>
       <c r="Z6">
-        <v>0.07422657311317453</v>
+        <v>0.09024787258154245</v>
       </c>
       <c r="AA6">
-        <v>0.05633715972114425</v>
+        <v>0.006381617613150798</v>
       </c>
       <c r="AB6">
-        <v>0.05979703330981002</v>
+        <v>0.04714059148487108</v>
       </c>
       <c r="AC6">
-        <v>-0.003459873588665771</v>
+        <v>-0.04075897387172028</v>
       </c>
       <c r="AD6">
-        <v>2.73</v>
+        <v>3.17</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>2.73</v>
+        <v>3.17</v>
       </c>
       <c r="AG6">
-        <v>-40.27</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="AH6">
-        <v>0.008177815055567203</v>
+        <v>0.01027985861140837</v>
       </c>
       <c r="AI6">
-        <v>0.004472990021791489</v>
+        <v>0.00722145021299861</v>
       </c>
       <c r="AJ6">
-        <v>-0.1384657703813224</v>
+        <v>0.001308900523560209</v>
       </c>
       <c r="AK6">
-        <v>-0.07098161563816474</v>
+        <v>0.0009170105456212745</v>
       </c>
       <c r="AL6">
-        <v>0.051</v>
+        <v>0.435</v>
       </c>
       <c r="AM6">
-        <v>0.051</v>
+        <v>0.435</v>
       </c>
       <c r="AN6">
-        <v>0.07777777777777778</v>
+        <v>0.483969465648855</v>
       </c>
       <c r="AO6">
-        <v>686.2745098039217</v>
+        <v>13.31034482758621</v>
       </c>
       <c r="AP6">
-        <v>-1.147293447293447</v>
+        <v>0.06106870229007633</v>
       </c>
       <c r="AQ6">
-        <v>686.2745098039217</v>
+        <v>13.31034482758621</v>
       </c>
     </row>
     <row r="7">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Societatea de Investitii Financiare Moldova S.A. (BVB:SIF2)</t>
+          <t>SIF Banat-Crisana (BVB:SIF1)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1228,121 +1228,118 @@
         </is>
       </c>
       <c r="D7">
-        <v>-0.123</v>
-      </c>
-      <c r="E7">
-        <v>-0.115</v>
+        <v>-0.494</v>
       </c>
       <c r="G7">
-        <v>0.2672064777327935</v>
+        <v>12.97805642633229</v>
       </c>
       <c r="H7">
-        <v>0.2672064777327935</v>
+        <v>12.97805642633229</v>
       </c>
       <c r="I7">
-        <v>0.5384615384615385</v>
+        <v>-0.8150470219435737</v>
       </c>
       <c r="J7">
-        <v>0.4773851590106008</v>
+        <v>-0.8150470219435737</v>
       </c>
       <c r="K7">
-        <v>24.9</v>
+        <v>-2.86</v>
       </c>
       <c r="L7">
-        <v>0.5040485829959515</v>
+        <v>-0.896551724137931</v>
       </c>
       <c r="M7">
-        <v>18.98</v>
+        <v>1.3</v>
       </c>
       <c r="N7">
-        <v>0.05061333333333334</v>
+        <v>0.004563004563004564</v>
       </c>
       <c r="O7">
-        <v>0.7622489959839358</v>
+        <v>-0.4545454545454546</v>
       </c>
       <c r="P7">
-        <v>14.1</v>
+        <v>-0</v>
       </c>
       <c r="Q7">
-        <v>0.0376</v>
+        <v>-0</v>
       </c>
       <c r="R7">
-        <v>0.5662650602409639</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>4.880000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="T7">
-        <v>0.2571127502634352</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>9.869999999999999</v>
+        <v>54.2</v>
       </c>
       <c r="V7">
-        <v>0.02632</v>
+        <v>0.1902421902421903</v>
       </c>
       <c r="W7">
-        <v>0.05474934036939313</v>
+        <v>-0.004570880613712642</v>
       </c>
       <c r="X7">
-        <v>0.06102003048124241</v>
+        <v>0.04699080201778191</v>
       </c>
       <c r="Y7">
-        <v>-0.006270690111849275</v>
+        <v>-0.05156168263149456</v>
       </c>
       <c r="Z7">
-        <v>0.1074473638420045</v>
+        <v>0.005303055490906672</v>
       </c>
       <c r="AA7">
-        <v>0.0512937768729852</v>
+        <v>-0.004322239585064999</v>
       </c>
       <c r="AB7">
-        <v>0.06019498291881658</v>
+        <v>0.04697868048374997</v>
       </c>
       <c r="AC7">
-        <v>-0.008901206045831375</v>
+        <v>-0.05130092006881497</v>
       </c>
       <c r="AD7">
-        <v>14.7</v>
+        <v>0.238</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>14.7</v>
+        <v>0.238</v>
       </c>
       <c r="AG7">
-        <v>4.83</v>
+        <v>-53.962</v>
       </c>
       <c r="AH7">
-        <v>0.03772132409545804</v>
+        <v>0.0008346835567339324</v>
       </c>
       <c r="AI7">
-        <v>0.02944711538461538</v>
+        <v>0.0003979680220989301</v>
       </c>
       <c r="AJ7">
-        <v>0.0127162151488824</v>
+        <v>-0.2336644467346214</v>
       </c>
       <c r="AK7">
-        <v>0.009870639445772792</v>
+        <v>-0.09922440138423576</v>
       </c>
       <c r="AL7">
-        <v>0.641</v>
+        <v>0.026</v>
       </c>
       <c r="AM7">
-        <v>0.641</v>
+        <v>0.026</v>
       </c>
       <c r="AN7">
-        <v>0.5384615384615384</v>
+        <v>-0.09482071713147411</v>
       </c>
       <c r="AO7">
-        <v>41.49765990639626</v>
+        <v>-100</v>
       </c>
       <c r="AP7">
-        <v>0.1769230769230769</v>
+        <v>21.4988047808765</v>
       </c>
       <c r="AQ7">
-        <v>41.49765990639626</v>
+        <v>-100</v>
       </c>
     </row>
   </sheetData>
